--- a/Coronavirus.xlsx
+++ b/Coronavirus.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="data" localSheetId="0">Nurses!$A$1:$D$6</definedName>
-    <definedName name="data__1" localSheetId="1">Medicos!$A$1:$G$6</definedName>
+    <definedName name="data__1" localSheetId="1">Medicos!$A$1:$D$6</definedName>
     <definedName name="data__3" localSheetId="2">Camas!$A$1:$C$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Argentina</t>
   </si>
@@ -88,25 +88,10 @@
     <t>Nursing personnel (number)</t>
   </si>
   <si>
-    <t>Brazil*</t>
-  </si>
-  <si>
-    <t>Chile*</t>
-  </si>
-  <si>
     <t>Medical doctors (per 10 000 population)</t>
   </si>
   <si>
     <t>Medical doctors (number)</t>
-  </si>
-  <si>
-    <t>Generalist medical practitioners (number)</t>
-  </si>
-  <si>
-    <t>Specialist medical practitioners (number)</t>
-  </si>
-  <si>
-    <t>Medical doctors not further defined (number)</t>
   </si>
   <si>
     <t>Brazil</t>
@@ -482,9 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -523,7 +506,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2017</v>
@@ -537,7 +520,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -584,10 +567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,12 +579,9 @@
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -609,22 +589,13 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -637,15 +608,10 @@
       <c r="D2" s="1">
         <v>174092</v>
       </c>
-      <c r="E2" s="1">
-        <v>174092</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2013</v>
@@ -656,13 +622,8 @@
       <c r="D3" s="1">
         <v>378354</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
-        <v>378354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -675,15 +636,8 @@
       <c r="D4" s="1">
         <v>41767</v>
       </c>
-      <c r="E4" s="1">
-        <v>20807</v>
-      </c>
-      <c r="F4" s="1">
-        <v>20960</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -696,13 +650,8 @@
       <c r="D5" s="1">
         <v>8203</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>8203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,13 +664,6 @@
       <c r="D6" s="1">
         <v>13545</v>
       </c>
-      <c r="E6" s="1">
-        <v>5021</v>
-      </c>
-      <c r="F6" s="1">
-        <v>8524</v>
-      </c>
-      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -751,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,7 +709,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2014</v>
